--- a/lab_assignments/assignment1/Datasets.xlsx
+++ b/lab_assignments/assignment1/Datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chadniederhuth/projects/PLB812/lab_assignments/assignment1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niederhu/projects/plb812/lab_assignments/assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE33B286-4CF6-8943-A7E0-4D428695D105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ADB73E-271D-1C4B-A2AB-4597F79FBBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="16700" windowHeight="28300" xr2:uid="{F54456DA-9A38-7D4D-B2DB-090C5E9202A5}"/>
+    <workbookView xWindow="13540" yWindow="760" windowWidth="16700" windowHeight="18880" xr2:uid="{F54456DA-9A38-7D4D-B2DB-090C5E9202A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Species</t>
   </si>
@@ -138,6 +138,51 @@
   </si>
   <si>
     <t>Use t1 control &amp; drought</t>
+  </si>
+  <si>
+    <t>Shannon Donnelly</t>
+  </si>
+  <si>
+    <t>Maxwell Harman</t>
+  </si>
+  <si>
+    <t>John Hawkins</t>
+  </si>
+  <si>
+    <t>Isaiah Kaufman</t>
+  </si>
+  <si>
+    <t>Bailey Kleven</t>
+  </si>
+  <si>
+    <t>George Kusi-Appiah</t>
+  </si>
+  <si>
+    <t>Joel Landa</t>
+  </si>
+  <si>
+    <t>Jordan Manchego</t>
+  </si>
+  <si>
+    <t>Angel McKay Whiteman</t>
+  </si>
+  <si>
+    <t>Drew Mitchell</t>
+  </si>
+  <si>
+    <t>Asmaa Morsi</t>
+  </si>
+  <si>
+    <t>Kaela Panicucci</t>
+  </si>
+  <si>
+    <t>Mallory St. Clair</t>
+  </si>
+  <si>
+    <t>Luke Strickland</t>
+  </si>
+  <si>
+    <t>Raju Thada Magar</t>
   </si>
 </sst>
 </file>
@@ -511,7 +556,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,6 +587,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -556,6 +604,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -570,6 +621,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -584,6 +638,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -598,6 +655,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -612,6 +672,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -626,6 +689,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -640,6 +706,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -654,6 +723,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -668,6 +740,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -682,6 +757,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -696,6 +774,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -710,6 +791,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -727,6 +811,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -744,6 +831,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>

--- a/lab_assignments/assignment1/Datasets.xlsx
+++ b/lab_assignments/assignment1/Datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niederhu/projects/plb812/lab_assignments/assignment1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niederhu/projects/PLB812/lab_assignments/assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ADB73E-271D-1C4B-A2AB-4597F79FBBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5191D4-85D5-D34F-B803-B643DA1A7692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13540" yWindow="760" windowWidth="16700" windowHeight="18880" xr2:uid="{F54456DA-9A38-7D4D-B2DB-090C5E9202A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Species</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Drew Mitchell</t>
-  </si>
-  <si>
-    <t>Asmaa Morsi</t>
   </si>
   <si>
     <t>Kaela Panicucci</t>
@@ -556,7 +553,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,9 +618,6 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -758,7 +752,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -775,7 +769,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -792,7 +786,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -812,7 +806,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -832,7 +826,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
